--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2216973.326765724</v>
+        <v>-2219587.605382176</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>170.4957819513108</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>88.59266126419419</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851265</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674309</v>
+        <v>14.08691327674312</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
-        <v>91.28995390759859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.8394318079292</v>
+        <v>94.83943180792923</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>87.99746709319945</v>
       </c>
       <c r="T4" t="n">
         <v>220.1102960603998</v>
@@ -874,16 +874,16 @@
         <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>64.0901856147604</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>54.41653174045834</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>223.2521261057151</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.41670903610059</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>14.25108662428314</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.2537595499113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>157.8246942436139</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>249.6351755834639</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176437</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,16 +1576,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>140.3829797865003</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>108.2950343703267</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>269.0987184306185</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,10 +1850,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.4765410832876</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>159.6155901915576</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.01175877060061</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214426</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>22.61263105777442</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301522</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,7 +2713,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261727</v>
@@ -2725,13 +2725,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652541</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1282.821523404874</v>
+        <v>943.1869499377992</v>
       </c>
       <c r="C2" t="n">
-        <v>913.8590064644625</v>
+        <v>943.1869499377992</v>
       </c>
       <c r="D2" t="n">
-        <v>913.8590064644625</v>
+        <v>943.1869499377992</v>
       </c>
       <c r="E2" t="n">
-        <v>913.8590064644627</v>
+        <v>770.968988370819</v>
       </c>
       <c r="F2" t="n">
-        <v>502.8731016748551</v>
+        <v>359.9830835812114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.3855650443555</v>
+        <v>359.9830835812114</v>
       </c>
       <c r="H2" t="n">
-        <v>112.7721371749273</v>
+        <v>59.36965571178311</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178315</v>
+        <v>59.36965571178311</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734998</v>
+        <v>223.6389510734989</v>
       </c>
       <c r="K2" t="n">
-        <v>520.574560644744</v>
+        <v>520.5745606447431</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185024</v>
+        <v>925.8512030185013</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552357</v>
+        <v>1408.468993552356</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877248</v>
+        <v>1903.509852877247</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384225</v>
+        <v>2357.627637384224</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215711</v>
+        <v>2710.705659215709</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719472</v>
+        <v>2927.67980271947</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589158</v>
+        <v>2968.482785589155</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338332</v>
+        <v>2851.45053833833</v>
       </c>
       <c r="T2" t="n">
-        <v>2644.177727152599</v>
+        <v>2644.177727152597</v>
       </c>
       <c r="U2" t="n">
-        <v>2390.623582788378</v>
+        <v>2390.623582788376</v>
       </c>
       <c r="V2" t="n">
-        <v>2059.560695444808</v>
+        <v>2059.560695444805</v>
       </c>
       <c r="W2" t="n">
-        <v>2059.560695444808</v>
+        <v>1706.792040174691</v>
       </c>
       <c r="X2" t="n">
-        <v>2059.560695444808</v>
+        <v>1333.326281913611</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.421363468996</v>
+        <v>943.1869499377992</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3103593400834</v>
+        <v>1341.528820902743</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8573300589564</v>
+        <v>1167.075791621616</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9229203977052</v>
+        <v>1018.141381960365</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6854653922496</v>
+        <v>858.9039269549091</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1509074191346</v>
+        <v>712.3693689817941</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6295159672683</v>
+        <v>575.8479775299279</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182668</v>
+        <v>483.8173226044863</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178315</v>
+        <v>469.5881172744427</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148951</v>
+        <v>548.6079372775546</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168901</v>
+        <v>761.8202204795493</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671326</v>
+        <v>1094.832988429792</v>
       </c>
       <c r="M3" t="n">
-        <v>1332.329405070861</v>
+        <v>1502.800049602472</v>
       </c>
       <c r="N3" t="n">
-        <v>1765.502785324653</v>
+        <v>1935.973429856264</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.552005769183</v>
+        <v>2310.022650300793</v>
       </c>
       <c r="P3" t="n">
-        <v>2420.426415694429</v>
+        <v>2830.644877257088</v>
       </c>
       <c r="Q3" t="n">
-        <v>2558.264324026496</v>
+        <v>2968.482785589155</v>
       </c>
       <c r="R3" t="n">
-        <v>2558.264324026496</v>
+        <v>2968.482785589155</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.886246336681</v>
+        <v>2836.104707899341</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.605221056462</v>
+        <v>2642.823682619121</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.526960290582</v>
+        <v>2414.745421853242</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.37485205884</v>
+        <v>2179.593313621499</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.137495330638</v>
+        <v>1925.355956893298</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.285995125105</v>
+        <v>1717.504456687765</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.525696360151</v>
+        <v>1509.744157922811</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>445.8687424774337</v>
+        <v>356.8833597377189</v>
       </c>
       <c r="C4" t="n">
-        <v>445.8687424774337</v>
+        <v>356.8833597377189</v>
       </c>
       <c r="D4" t="n">
-        <v>445.8687424774337</v>
+        <v>206.7667203253832</v>
       </c>
       <c r="E4" t="n">
-        <v>445.8687424774337</v>
+        <v>206.7667203253832</v>
       </c>
       <c r="F4" t="n">
-        <v>298.9787949795233</v>
+        <v>206.7667203253833</v>
       </c>
       <c r="G4" t="n">
-        <v>298.9787949795233</v>
+        <v>206.7667203253833</v>
       </c>
       <c r="H4" t="n">
-        <v>151.5817303659231</v>
+        <v>59.36965571178311</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178315</v>
+        <v>59.36965571178311</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945988</v>
+        <v>95.29667538945972</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778208</v>
+        <v>284.1726417778207</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386277</v>
+        <v>581.3952856386272</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945955</v>
+        <v>905.1640129945952</v>
       </c>
       <c r="N4" t="n">
         <v>1226.668860094579</v>
@@ -4504,7 +4504,7 @@
         <v>1507.614327944344</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290281</v>
+        <v>1724.49102829028</v>
       </c>
       <c r="Q4" t="n">
         <v>1791.210133852896</v>
@@ -4513,25 +4513,25 @@
         <v>1695.412727986301</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493183</v>
+        <v>1606.526397589129</v>
       </c>
       <c r="T4" t="n">
-        <v>1279.080506108941</v>
+        <v>1384.192765204887</v>
       </c>
       <c r="U4" t="n">
-        <v>989.9704007202812</v>
+        <v>1095.082659816227</v>
       </c>
       <c r="V4" t="n">
-        <v>735.2859125143943</v>
+        <v>1095.082659816227</v>
       </c>
       <c r="W4" t="n">
-        <v>445.8687424774337</v>
+        <v>805.6654897792664</v>
       </c>
       <c r="X4" t="n">
-        <v>445.8687424774337</v>
+        <v>577.6759388812491</v>
       </c>
       <c r="Y4" t="n">
-        <v>445.8687424774337</v>
+        <v>356.8833597377189</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.864437266279</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.901920325867</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2691.069367567292</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2691.069367567292</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2317.603609306213</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1927.464277330401</v>
+        <v>1643.543434242328</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574644</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574644</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574644</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1450.843444452131</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1161.42627441517</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696239</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y7" t="n">
-        <v>415.8634178877041</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
@@ -4835,19 +4835,19 @@
         <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4881,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>669.1547731989292</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
         <v>359.619250712236</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1171.854848228773</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V10" t="n">
-        <v>917.1703600228861</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W10" t="n">
-        <v>917.1703600228861</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X10" t="n">
-        <v>689.1808091248688</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.1808091248688</v>
+        <v>850.8032380291689</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,19 +5036,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5066,22 +5066,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400745</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121676</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5197,25 +5197,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782995</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038382</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797784</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580264</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832666</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.06254548757</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510511</v>
+        <v>2160.315914855608</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854709</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648823</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611862</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138444</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703142</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5264,19 +5264,19 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075813</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660704</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381635</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381635</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557704</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963101</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913447</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129206</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755758</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3473.939263755758</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589092</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1816.233211630147</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703108</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232839</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408909</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429804</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135314</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138407</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138407</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400708</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400708</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400708</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576776</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576776</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>198.7444078725577</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,10 +6151,10 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,25 +6306,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954145</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
         <v>2179.340199382518</v>
@@ -6403,7 +6403,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931273</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656825</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
         <v>411.221455958012</v>
@@ -6616,13 +6616,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6844,16 +6844,16 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,25 +7014,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384014</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,7 +7248,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7391,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311324</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>242.1695121525736</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>242.1695121525749</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447146</v>
+        <v>9.872575263447203</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>211.434588120951</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>322.6219514102199</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.8684566485127</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,13 +22708,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.1571872936354</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.013392379334846</v>
+        <v>100.3033462869334</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>104.0611365049872</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.586274966448</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>145.8014946027438</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>17.4242799059725</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.35543909864968</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>126.5688841976865</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.8202214113367</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>40.64330621514844</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>117.6820817884495</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.22910392194262</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1362949.545850982</v>
+        <v>1362949.545850983</v>
       </c>
     </row>
     <row r="6">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.3667421549</v>
+        <v>48691.36674215489</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675047</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
         <v>60535.99497675044</v>
@@ -26335,25 +26335,25 @@
         <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982126</v>
       </c>
-      <c r="M2" t="n">
-        <v>61578.13273982127</v>
-      </c>
       <c r="N2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982124</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1228620.061871474</v>
+        <v>1228620.061871473</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973075</v>
+        <v>95186.49343973087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818041</v>
+        <v>213599.145481804</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359961</v>
+        <v>22978.01038359979</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16555.52139697205</v>
+        <v>16555.52139697207</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680583</v>
@@ -26430,16 +26430,16 @@
         <v>11776.97621680578</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680585</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="J4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.8354798993</v>
       </c>
       <c r="K4" t="n">
         <v>19767.83547989928</v>
@@ -26451,13 +26451,13 @@
         <v>19767.83547989928</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989926</v>
+        <v>19767.8354798993</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.83547989932</v>
+        <v>19767.8354798993</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.8354798993</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1297401.633847266</v>
+        <v>-1297831.192713853</v>
       </c>
       <c r="C6" t="n">
-        <v>-232506.3122494599</v>
+        <v>-232506.3122494601</v>
       </c>
       <c r="D6" t="n">
         <v>-137319.8188097292</v>
       </c>
       <c r="E6" t="n">
-        <v>-377775.9728713179</v>
+        <v>-377810.7107967536</v>
       </c>
       <c r="F6" t="n">
-        <v>-52363.51106396245</v>
+        <v>-52398.24898939816</v>
       </c>
       <c r="G6" t="n">
-        <v>-52363.51106396248</v>
+        <v>-52398.2489893982</v>
       </c>
       <c r="H6" t="n">
-        <v>-52363.51106396251</v>
+        <v>-52398.24898939823</v>
       </c>
       <c r="I6" t="n">
-        <v>-52363.51106396252</v>
+        <v>-52398.24898939821</v>
       </c>
       <c r="J6" t="n">
         <v>-274952.9640757975</v>
       </c>
       <c r="K6" t="n">
-        <v>-84331.82897759302</v>
+        <v>-84331.82897759322</v>
       </c>
       <c r="L6" t="n">
-        <v>-61353.81859399342</v>
+        <v>-61353.81859399343</v>
       </c>
       <c r="M6" t="n">
         <v>-146408.8465295053</v>
       </c>
       <c r="N6" t="n">
-        <v>-61353.81859399339</v>
+        <v>-61353.81859399343</v>
       </c>
       <c r="O6" t="n">
-        <v>-80781.53658762525</v>
+        <v>-80781.53658762522</v>
       </c>
       <c r="P6" t="n">
-        <v>-61353.81859399342</v>
+        <v>-61353.81859399346</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129329</v>
+        <v>1016.921054129328</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972894</v>
+        <v>742.1206963972888</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129329</v>
+        <v>1016.921054129328</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396972</v>
+        <v>72.85564646396961</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972894</v>
+        <v>742.1206963972888</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500301</v>
+        <v>89.28075900500369</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972893</v>
+        <v>742.1206963972888</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500301</v>
+        <v>89.28075900500369</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972894</v>
+        <v>742.1206963972888</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500301</v>
+        <v>89.28075900500369</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.6620728553745</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>331.8214069155953</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>2.457529283322032</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.1679443159942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>236.7440853346188</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.9841791061423</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>9.422126855013914</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>36.57666262214897</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.810895336081952e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-4.513514567073415e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.780087354243733e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.215385309298231e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720916</v>
+        <v>4.088124840720915</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503309</v>
+        <v>41.86750852503307</v>
       </c>
       <c r="I2" t="n">
-        <v>157.6074329218933</v>
+        <v>157.6074329218932</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001372</v>
+        <v>346.9744857001371</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078536</v>
+        <v>520.0248102078534</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020665</v>
+        <v>645.1367608020663</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382371</v>
+        <v>717.8389509382367</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419354</v>
+        <v>729.4543356419351</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570167</v>
+        <v>688.8030442570165</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517191</v>
+        <v>587.8774622517188</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934011</v>
+        <v>441.471491393401</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259355</v>
+        <v>256.8006720259354</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792797</v>
+        <v>93.15814480792793</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025582</v>
+        <v>17.89576649025581</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576732</v>
+        <v>0.3270499872576731</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863084</v>
+        <v>2.187339625863083</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030926</v>
+        <v>21.12509586030925</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467199</v>
+        <v>75.30971957467196</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698101</v>
+        <v>206.65562666981</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026368</v>
+        <v>353.2073816026366</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629474</v>
+        <v>474.9309130629472</v>
       </c>
       <c r="M3" t="n">
-        <v>554.221974500484</v>
+        <v>554.2219745004838</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265571</v>
+        <v>568.890581026557</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429593</v>
+        <v>520.4237398429591</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913463</v>
+        <v>417.6859325913462</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224527</v>
+        <v>279.2119845224526</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005168</v>
+        <v>135.8069287005167</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092174</v>
+        <v>40.62887419092172</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404271</v>
+        <v>8.816513667404267</v>
       </c>
       <c r="U3" t="n">
         <v>0.1439039227541503</v>
@@ -31200,10 +31200,10 @@
         <v>1.833792064823379</v>
       </c>
       <c r="H4" t="n">
-        <v>16.30407853997515</v>
+        <v>16.30407853997514</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032492</v>
+        <v>55.14712864032489</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
@@ -31212,31 +31212,31 @@
         <v>213.0532962585707</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283777</v>
+        <v>272.6348675283776</v>
       </c>
       <c r="M4" t="n">
         <v>287.4552415795411</v>
       </c>
       <c r="N4" t="n">
-        <v>280.620198428836</v>
+        <v>280.6201984288359</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443083</v>
+        <v>259.1981729443082</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219112</v>
+        <v>221.7888148219111</v>
       </c>
       <c r="Q4" t="n">
         <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924028</v>
+        <v>82.45395956924025</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878561</v>
+        <v>31.9579944387856</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881709</v>
+        <v>7.835293367881706</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328822</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>232.75998908852</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>671.2522281007809</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,28 +32552,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33041,13 +33041,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>216.0947523943934</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,13 +33655,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>241.387751759078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236526</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663298</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663298</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734509</v>
+        <v>165.9285811734508</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628731</v>
+        <v>299.9349591628729</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320793</v>
+        <v>409.3703458320791</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109644</v>
+        <v>487.492717710964</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453444</v>
+        <v>500.0412720453442</v>
       </c>
       <c r="O2" t="n">
-        <v>458.70483283533</v>
+        <v>458.7048328353297</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964495</v>
+        <v>356.6444664964493</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189516</v>
+        <v>219.1658015189515</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180333</v>
+        <v>41.21513421180327</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.8180000031434</v>
+        <v>79.81800000314334</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282778</v>
+        <v>215.3659426282776</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830732</v>
+        <v>336.376533283073</v>
       </c>
       <c r="M3" t="n">
-        <v>654.2574527310393</v>
+        <v>412.0879405784655</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432239</v>
+        <v>437.5488689432237</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985149</v>
+        <v>377.8274953985147</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770161</v>
+        <v>525.8810373295909</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.2302104364312</v>
+        <v>139.230210436431</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634012</v>
+        <v>36.28991886634009</v>
       </c>
       <c r="K4" t="n">
-        <v>190.7838044326879</v>
+        <v>190.7838044326878</v>
       </c>
       <c r="L4" t="n">
-        <v>300.2248927886939</v>
+        <v>300.2248927886938</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413817</v>
+        <v>327.0391185413816</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080646</v>
+        <v>324.7523708080645</v>
       </c>
       <c r="O4" t="n">
-        <v>283.783300858348</v>
+        <v>283.7833008583478</v>
       </c>
       <c r="P4" t="n">
         <v>219.0673740868046</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183423</v>
+        <v>67.39303592183417</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884378</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629572</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572999016</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,16 +35732,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>528.6559836563365</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36689,13 +36689,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>77.54037261451923</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37303,13 +37303,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>114.5501250924113</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168383</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,16 +37707,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>472.9041105158597</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
